--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sending Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image File</t>
   </si>
 </sst>
 </file>
@@ -162,13 +159,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -195,12 +201,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -20,9 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">STT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User ID</t>
   </si>
   <si>
     <t xml:space="preserve">Account Number</t>
@@ -159,21 +165,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="A2:H2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -200,6 +208,12 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
